--- a/result.xlsx
+++ b/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\formal\Homo Sapiens\Bible_checkin\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bujiatang\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8E334E-97A5-4E4B-9557-C4A30C422AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0259E30D-2EB7-4D71-A6D3-B53D12F6BF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="50">
   <si>
     <t>姓名</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Purple</t>
   </si>
   <si>
-    <t>Qiqi</t>
-  </si>
-  <si>
     <t>Sandy</t>
   </si>
   <si>
@@ -166,16 +163,10 @@
     <t>韓姐</t>
   </si>
   <si>
-    <t>韩姐</t>
-  </si>
-  <si>
     <t>飞鸟</t>
   </si>
   <si>
     <t>香香</t>
-  </si>
-  <si>
-    <t>高蓝</t>
   </si>
   <si>
     <t>高阿姨</t>
@@ -569,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1006,16 +997,20 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1035,13 +1030,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -1050,16 +1045,16 @@
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1067,10 +1062,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -1085,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>11</v>
@@ -1099,10 +1094,10 @@
         <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1120,10 +1115,10 @@
         <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1131,10 +1126,10 @@
         <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -1146,36 +1141,32 @@
         <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>12</v>
@@ -1184,10 +1175,10 @@
         <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1222,28 +1213,32 @@
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1282,32 +1277,28 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1342,28 +1333,32 @@
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="1">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1371,13 +1366,13 @@
         <v>37</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
@@ -1389,13 +1384,13 @@
         <v>11</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1403,13 +1398,13 @@
         <v>38</v>
       </c>
       <c r="B28" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>11</v>
@@ -1427,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1466,57 +1461,57 @@
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="1">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>12</v>
@@ -1526,29 +1521,25 @@
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="1">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>12</v>
@@ -1558,8 +1549,12 @@
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1579,19 +1574,15 @@
         <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>6</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
@@ -1611,35 +1602,39 @@
         <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1647,16 +1642,16 @@
         <v>46</v>
       </c>
       <c r="B36" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
@@ -1678,12 +1673,8 @@
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="1">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
@@ -1691,172 +1682,88 @@
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="1">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D3:Z100">
+  <conditionalFormatting sqref="D3:Z97">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>D3="(^_^)"</formula>
     </cfRule>

--- a/result.xlsx
+++ b/result.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,37 +499,37 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>玛拉基书2-4</t>
+          <t>马太福音13-14</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>马太福音1-2</t>
+          <t>马太福音15-16</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>马太福音3-4</t>
+          <t>马太福音17-18</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>马太福音5-6</t>
+          <t>马太福音19-20</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>马太福音7-8</t>
+          <t>马太福音21-22</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>马太福音9-10</t>
+          <t>马太福音23-24</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>马太福音11-12</t>
+          <t>马太福音25-26</t>
         </is>
       </c>
     </row>
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -680,7 +680,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Coral宏珊</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -721,14 +721,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>HomoSapiens</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr"/>
@@ -772,15 +772,11 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Jenny</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
+          <t>HomoSapiens</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="2" t="inlineStr">
         <is>
           <t>(~~)</t>
@@ -803,68 +799,72 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Kai GONG</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr"/>
-      <c r="C8" s="3" t="inlineStr"/>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Kali</t>
+          <t>Kai GONG</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr"/>
@@ -908,7 +908,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Kali</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr"/>
@@ -952,7 +952,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr"/>
@@ -996,15 +996,11 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>3</v>
-      </c>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr"/>
+      <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr">
         <is>
           <t>(~~)</t>
@@ -1012,12 +1008,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1032,36 +1028,40 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Purple</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr"/>
-      <c r="C13" s="3" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr"/>
@@ -1132,15 +1132,11 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Simon</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>5</v>
-      </c>
+          <t>Sandy</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="2" t="inlineStr">
         <is>
           <t>(~~)</t>
@@ -1148,12 +1144,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1180,62 +1176,58 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Yuanbo</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>Simon</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr"/>
+      <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>qiqi</t>
+          <t>Yuanbo</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
@@ -1259,7 +1251,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1276,14 +1268,14 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>东岩</t>
+          <t>qiqi</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -1307,31 +1299,31 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>光宇</t>
+          <t>东岩</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
@@ -1355,7 +1347,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1372,14 +1364,18 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>威威</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr"/>
-      <c r="C20" s="3" t="inlineStr"/>
+          <t>光宇</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1389,60 +1385,56 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>少平</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>1</v>
-      </c>
+          <t>威威</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr"/>
+      <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1452,26 +1444,26 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>少鹏</t>
+          <t>少平</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
@@ -1495,7 +1487,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1512,24 +1504,28 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>岩松</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr"/>
-      <c r="C23" s="3" t="inlineStr"/>
+          <t>少鹏</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1556,7 +1552,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>张乃川</t>
+          <t>岩松</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr"/>
@@ -1600,66 +1596,62 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>晓丹</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>张乃川</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr"/>
+      <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>李莹莹</t>
+          <t>晓丹</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1679,7 +1671,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1689,35 +1681,35 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>李静</t>
+          <t>李莹莹</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1727,12 +1719,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -1744,7 +1736,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>燕珊</t>
+          <t>李静</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -1775,12 +1767,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -1792,59 +1784,59 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>王淑娟</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr"/>
-      <c r="C29" s="3" t="inlineStr"/>
+          <t>燕珊</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>王美盈</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>2</v>
-      </c>
+          <t>王淑娟</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr"/>
+      <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="2" t="inlineStr">
         <is>
           <t>(~~)</t>
@@ -1852,27 +1844,27 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -1884,14 +1876,18 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>玮彤</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr"/>
-      <c r="C31" s="3" t="inlineStr"/>
+          <t>王美盈</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1901,42 +1897,38 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>美盈</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>6</v>
-      </c>
+          <t>玮彤</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr"/>
+      <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="2" t="inlineStr">
         <is>
           <t>(~~)</t>
@@ -1969,14 +1961,14 @@
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>育青</t>
+          <t>美盈</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr"/>
@@ -2020,33 +2012,29 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>蓝蓝大海</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>1</v>
-      </c>
+          <t>育青</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr"/>
+      <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2056,35 +2044,35 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>韓姐</t>
+          <t>蓝蓝大海</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2099,7 +2087,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2116,14 +2104,18 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>飞鸟</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr"/>
-      <c r="C36" s="3" t="inlineStr"/>
+          <t>韓姐</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -2133,7 +2125,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -2143,40 +2135,36 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>(~~)</t>
+          <t>(^_^)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>香香</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>2</v>
-      </c>
+          <t>飞鸟</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr"/>
+      <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2186,7 +2174,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2196,67 +2184,115 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>(^_^)</t>
+          <t>(~~)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
+          <t>香香</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>(~~)</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>(^_^)</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>(^_^)</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>(~~)</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>(~~)</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>(^_^)</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>(~~)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
           <t>高阿姨</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B39" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>(^_^)</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>(^_^)</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>(^_^)</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>(^_^)</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>(^_^)</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>(^_^)</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>(^_^)</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>(^_^)</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>(^_^)</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>(^_^)</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>(^_^)</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>(^_^)</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
         <is>
           <t>(^_^)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C100">
+  <conditionalFormatting sqref="B2:C100">
     <cfRule type="expression" priority="1" dxfId="0">
-      <formula>C2=7</formula>
+      <formula>B2=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:Z100">

--- a/result.xlsx
+++ b/result.xlsx
@@ -65,10 +65,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +481,7 @@
     <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>姓名</t>
@@ -499,37 +499,44 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>马太福音13-14</t>
+          <t>2月16日
+马太福音13-14</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>马太福音15-16</t>
+          <t>2月17日
+马太福音15-16</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>马太福音17-18</t>
+          <t>2月18日
+马太福音17-18</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>马太福音19-20</t>
+          <t>2月19日
+马太福音19-20</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>马太福音21-22</t>
+          <t>2月20日
+马太福音21-22</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>马太福音23-24</t>
+          <t>2月21日
+马太福音23-24</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>马太福音25-26</t>
+          <t>2月22日
+马太福音25-26</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2297,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C100">
+  <conditionalFormatting sqref="B2:B100">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>B2=7</formula>
     </cfRule>
